--- a/Share/Luban/Configs/Datas/__tables__.xlsx
+++ b/Share/Luban/Configs/Datas/__tables__.xlsx
@@ -1061,7 +1061,9 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>

--- a/Share/Luban/Configs/Datas/__tables__.xlsx
+++ b/Share/Luban/Configs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Item.xlsx</t>
+  </si>
+  <si>
+    <t>TBItem_luban</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
@@ -1073,6 +1076,7 @@
     <col min="4" max="4" width="32.425" customWidth="1"/>
     <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="11" max="11" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1165,7 +1169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1177,6 +1181,9 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Share/Luban/Configs/Datas/__tables__.xlsx
+++ b/Share/Luban/Configs/Datas/__tables__.xlsx
@@ -119,7 +119,7 @@
     <t>Item.xlsx</t>
   </si>
   <si>
-    <t>TBItem_luban</t>
+    <t>TBItem</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
